--- a/fr_data_from_en.xlsx
+++ b/fr_data_from_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Documents/GitHub/TranslatedReadMe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA95FC-635A-224D-8CAE-A55BE6227743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25549FDA-C525-DF42-93EB-D9951FE44CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10720" yWindow="1260" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Feuille1" sheetId="1" r:id="rId1"/>
@@ -27,898 +27,898 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
-    <t>Phrase</t>
-  </si>
-  <si>
-    <t> Notation</t>
-  </si>
-  <si>
-    <t> Cette règle de tarification relie la majoration des prix sur le coût de production (P – MC) à l’élasticité-prix de la demande.</t>
-  </si>
-  <si>
-    <t> L’élasticité-prix croisée de l’offre rend compte de la réactivité de l’offre d’un bien, compte tenu d’une variation du prix d’un autre bien.</t>
-  </si>
-  <si>
-    <t> Les compléments de production sont des biens produits ensemble dans un rapport fixe.</t>
-  </si>
-  <si>
-    <t> Si le prix plafond est fixé à P', alors la quantité d'équilibre se trouve au minimum de la quantité demandée et de la quantité offerte, comme dans l'équation 2.1.</t>
-  </si>
-  <si>
-    <t> Aux États-Unis, une grande partie des agrumes est cultivée en Floride et en Californie.</t>
-  </si>
-  <si>
-    <t> Récupération : processus de rappel ou de réactivation de souvenirs stockés</t>
-  </si>
-  <si>
-    <t> Erikson a identifié huit étapes, chacune représentant un conflit ou une tâche de développement.</t>
-  </si>
-  <si>
-    <t> Je pense que la popularité du Mouvement du Ruban Rose est due à un marketing spécifique qui repose sur le fait qu'en tant que culture, nous sommes obsédés par le corps des femmes.</t>
+    <t>Cette règle de tarification relie la majoration des prix sur le coût de production (P – MC) à l’élasticité-prix de la demande.</t>
+  </si>
+  <si>
+    <t>L’élasticité-prix croisée de l’offre rend compte de la réactivité de l’offre d’un bien, compte tenu d’une variation du prix d’un autre bien.</t>
+  </si>
+  <si>
+    <t>Les compléments de production sont des biens produits ensemble dans un rapport fixe.</t>
+  </si>
+  <si>
+    <t>Si le prix plafond est fixé à P', alors la quantité d'équilibre se trouve au minimum de la quantité demandée et de la quantité offerte, comme dans l'équation 2.1.</t>
+  </si>
+  <si>
+    <t>Aux États-Unis, une grande partie des agrumes est cultivée en Floride et en Californie.</t>
+  </si>
+  <si>
+    <t>Récupération : processus de rappel ou de réactivation de souvenirs stockés</t>
+  </si>
+  <si>
+    <t>Erikson a identifié huit étapes, chacune représentant un conflit ou une tâche de développement.</t>
+  </si>
+  <si>
+    <t>Je pense que la popularité du Mouvement du Ruban Rose est due à un marketing spécifique qui repose sur le fait qu'en tant que culture, nous sommes obsédés par le corps des femmes.</t>
   </si>
   <si>
     <t>Ces résultats impressionnants révèlent le pouvoir du repositionnement lorsqu’il est bien géré.</t>
   </si>
   <si>
-    <t> Revenu discrétionnaire : le revenu discrétionnaire représente le montant d'argent qu'il nous reste pour investir, épargner ou dépenser, après avoir payé les impôts sur le revenu des personnes physiques et les nécessités.</t>
-  </si>
-  <si>
-    <t> Le côté droit montre le résultat après que l'attaquant a écrit le shellcode dans le tampon et, par débordement, a également écrasé le champ return_address sur la pile afin qu'il pointe désormais vers le shellcode.</t>
-  </si>
-  <si>
-    <t> Souvent, le quantum est un nombre d'octets au moins aussi grand que la MTU du réseau ; dans ce cas, chaque sous-file d'attente sera autorisée à envoyer au moins un paquet à chaque tour.</t>
-  </si>
-  <si>
-    <t> Il permet alors d'envoyer à ce tarif ; c'est-à-dire que le TFRC est basé sur des taux plutôt que sur des fenêtres.</t>
-  </si>
-  <si>
-    <t> Le trafic aval est marqué (au niveau du CMTS ou même plus haut dans le réseau) si c'est l'utilisation aval de l'utilisateur qui est élevée ; le trafic en amont est marqué au niveau de la connexion de l'utilisateur au réseau si l'utilisation en amont est élevée</t>
+    <t>Revenu discrétionnaire : le revenu discrétionnaire représente le montant d'argent qu'il nous reste pour investir, épargner ou dépenser, après avoir payé les impôts sur le revenu des personnes physiques et les nécessités.</t>
+  </si>
+  <si>
+    <t>Le côté droit montre le résultat après que l'attaquant a écrit le shellcode dans le tampon et, par débordement, a également écrasé le champ return_address sur la pile afin qu'il pointe désormais vers le shellcode.</t>
+  </si>
+  <si>
+    <t>Souvent, le quantum est un nombre d'octets au moins aussi grand que la MTU du réseau ; dans ce cas, chaque sous-file d'attente sera autorisée à envoyer au moins un paquet à chaque tour.</t>
+  </si>
+  <si>
+    <t>Il permet alors d'envoyer à ce tarif ; c'est-à-dire que le TFRC est basé sur des taux plutôt que sur des fenêtres.</t>
+  </si>
+  <si>
+    <t>Le trafic aval est marqué (au niveau du CMTS ou même plus haut dans le réseau) si c'est l'utilisation aval de l'utilisateur qui est élevée ; le trafic en amont est marqué au niveau de la connexion de l'utilisateur au réseau si l'utilisation en amont est élevée</t>
   </si>
   <si>
     <t>Il existe deux protocoles à état de liens spécifiques : le protocole Open Shortest Path First de l'IETF (OSPF, RFC 2328) et le protocole Intermediate Systems to Intermediate Systems (IS-IS) de l'OSI, documenté officieusement dans la RFC 1142.</t>
   </si>
   <si>
-    <t> La psychologie juridique est un domaine axé sur la recherche et peuplé de chercheurs de plusieurs domaines différents de la psychologie (bien que les psychologues sociaux soient typiques).</t>
-  </si>
-  <si>
-    <t> La psychologie du counseling est une spécialité de la psychologie qui facilite le fonctionnement personnel et interpersonnel tout au long de la vie en mettant l'accent sur les préoccupations émotionnelles, sociales, professionnelles, éducatives, liées à la santé, au développement et à l'organisation.</t>
-  </si>
-  <si>
-    <t> Ils constituent le tissu et l'élément de base du système nerveux.</t>
-  </si>
-  <si>
-    <t> Les sciences cognitives sont très étroitement liées à la psychologie cognitive, mais diffèrent dans certaines des méthodes de recherche utilisées et mettent un peu plus l'accent sur l'explication des phénomènes mentaux en termes de comportement et de traitement neuronal.</t>
+    <t>La psychologie juridique est un domaine axé sur la recherche et peuplé de chercheurs de plusieurs domaines différents de la psychologie (bien que les psychologues sociaux soient typiques).</t>
+  </si>
+  <si>
+    <t>La psychologie du counseling est une spécialité de la psychologie qui facilite le fonctionnement personnel et interpersonnel tout au long de la vie en mettant l'accent sur les préoccupations émotionnelles, sociales, professionnelles, éducatives, liées à la santé, au développement et à l'organisation.</t>
+  </si>
+  <si>
+    <t>Ils constituent le tissu et l'élément de base du système nerveux.</t>
+  </si>
+  <si>
+    <t>Les sciences cognitives sont très étroitement liées à la psychologie cognitive, mais diffèrent dans certaines des méthodes de recherche utilisées et mettent un peu plus l'accent sur l'explication des phénomènes mentaux en termes de comportement et de traitement neuronal.</t>
   </si>
   <si>
     <t>L’essor de la technologie informatique a également favorisé la métaphore de la fonction mentale en tant que traitement de l’information.</t>
   </si>
   <si>
-    <t> Les bulles de dialogue indiquent un dialogue (ou une pensée, dans le cas des bulles de pensée), avec des queues pointant vers leurs locuteurs respectifs.</t>
-  </si>
-  <si>
-    <t> La photographie offrait une alternative au dessin en tant que méthode pour représenter avec précision les phénomènes visuels, et la pratique traditionnelle du dessin était moins mise en avant en tant que compétence essentielle pour les artistes, en particulier dans la société occidentale.</t>
-  </si>
-  <si>
-    <t> Depuis lors, la photographie couleur a dominé la photographie populaire, même si le noir et blanc est toujours utilisé, plus facile à développer que la couleur.</t>
-  </si>
-  <si>
-    <t> Chez les musulmans, il est makruh (détesté) d'accomplir la salah (culte) dans un lieu décoré de photographies.</t>
-  </si>
-  <si>
-    <t> Lorsque les façades et les côtés d'un bâtiment sont dessinés, les lignes parallèles formant un côté convergent en un deuxième point le long de l'horizon (qui peut être hors du papier à dessin.)</t>
-  </si>
-  <si>
-    <t> La géographie technique est la branche la plus récemment reconnue.</t>
+    <t>Les bulles de dialogue indiquent un dialogue (ou une pensée, dans le cas des bulles de pensée), avec des queues pointant vers leurs locuteurs respectifs.</t>
+  </si>
+  <si>
+    <t>La photographie offrait une alternative au dessin en tant que méthode pour représenter avec précision les phénomènes visuels, et la pratique traditionnelle du dessin était moins mise en avant en tant que compétence essentielle pour les artistes, en particulier dans la société occidentale.</t>
+  </si>
+  <si>
+    <t>Depuis lors, la photographie couleur a dominé la photographie populaire, même si le noir et blanc est toujours utilisé, plus facile à développer que la couleur.</t>
+  </si>
+  <si>
+    <t>Chez les musulmans, il est makruh (détesté) d'accomplir la salah (culte) dans un lieu décoré de photographies.</t>
+  </si>
+  <si>
+    <t>Lorsque les façades et les côtés d'un bâtiment sont dessinés, les lignes parallèles formant un côté convergent en un deuxième point le long de l'horizon (qui peut être hors du papier à dessin.)</t>
+  </si>
+  <si>
+    <t>La géographie technique est la branche la plus récemment reconnue.</t>
   </si>
   <si>
     <t>Au début du nouveau millénaire, trois avancées technologiques clés ont transformé la cartographie : la suppression de la disponibilité sélective du système de positionnement global (GPS) en mai 2000, qui a amélioré la précision de localisation des récepteurs GPS grand public à quelques mètres près ; l'invention d'OpenStreetMap en 2004, une contre-carte numérique mondiale qui permettait à quiconque de contribuer et d'utiliser de nouvelles données spatiales sans accords de licence complexes ; et le lancement de Google Earth en 2005 en tant que développement du globe virtuel EarthViewer 3D (2004), qui a révolutionné l'accès aux images satellite et aériennes.</t>
   </si>
   <si>
-    <t> Avec l'émergence d'Internet et de la cartographie Web, les technologies permettant la création et la distribution de cartes par des personnes sans formation cartographique appropriée sont facilement disponibles.</t>
-  </si>
-  <si>
-    <t> L'image de la carte doit être placée sur la page (qu'elle soit papier, Web ou autre support), avec les éléments associés, tels que le titre, la légende, les cartes supplémentaires, le texte, les images, etc.</t>
+    <t>Avec l'émergence d'Internet et de la cartographie Web, les technologies permettant la création et la distribution de cartes par des personnes sans formation cartographique appropriée sont facilement disponibles.</t>
+  </si>
+  <si>
+    <t>L'image de la carte doit être placée sur la page (qu'elle soit papier, Web ou autre support), avec les éléments associés, tels que le titre, la légende, les cartes supplémentaires, le texte, les images, etc.</t>
   </si>
   <si>
     <t>En 2008, un Code international de nomenclature des zones a été proposé pour la biogéographie.</t>
   </si>
   <si>
-    <t> Les gros fumeurs brûlent 200 calories de plus par jour que les non-fumeurs suivant le même régime.</t>
-  </si>
-  <si>
-    <t> Les limites d’âge mondiales en pédiatrie ont tendance à augmenter d’année en année.</t>
-  </si>
-  <si>
-    <t> Il augmente dans les circonstances où une personne a une immunité réduite contre l’infection.</t>
-  </si>
-  <si>
-    <t> Il utilisera les réserves d’énergie stockées jusqu’à ce qu’elles soient épuisées, puis décomposera sa propre masse corporelle pour obtenir de l’énergie supplémentaire.</t>
-  </si>
-  <si>
-    <t> Les mesures d'hygiène comprennent l'extraction d'huile et le grattage de la langue.</t>
-  </si>
-  <si>
-    <t> Qin Shi Huang, le premier empereur de la dynastie Qin (221-207 av. J.-C.), doit une grande partie de son succès dans l'unification du sud de la Chine à la puissance navale, bien qu'une marine officielle n'ait pas encore été établie (voir la section Asie médiévale ci-dessous).</t>
-  </si>
-  <si>
-    <t> Dans d'autres scènes ailleurs, les hommes portent des coiffes et des ornements de genoux mais se battent nus.</t>
+    <t>Les gros fumeurs brûlent 200 calories de plus par jour que les non-fumeurs suivant le même régime.</t>
+  </si>
+  <si>
+    <t>Les limites d’âge mondiales en pédiatrie ont tendance à augmenter d’année en année.</t>
+  </si>
+  <si>
+    <t>Il augmente dans les circonstances où une personne a une immunité réduite contre l’infection.</t>
+  </si>
+  <si>
+    <t>Il utilisera les réserves d’énergie stockées jusqu’à ce qu’elles soient épuisées, puis décomposera sa propre masse corporelle pour obtenir de l’énergie supplémentaire.</t>
+  </si>
+  <si>
+    <t>Les mesures d'hygiène comprennent l'extraction d'huile et le grattage de la langue.</t>
+  </si>
+  <si>
+    <t>Qin Shi Huang, le premier empereur de la dynastie Qin (221-207 av. J.-C.), doit une grande partie de son succès dans l'unification du sud de la Chine à la puissance navale, bien qu'une marine officielle n'ait pas encore été établie (voir la section Asie médiévale ci-dessous).</t>
+  </si>
+  <si>
+    <t>Dans d'autres scènes ailleurs, les hommes portent des coiffes et des ornements de genoux mais se battent nus.</t>
   </si>
   <si>
     <t>En raison du besoin croissant de récolter et de traiter les plantes, les objets en pierre broyée et en pierre polie sont devenus beaucoup plus répandus, y compris les outils pour broyer, couper et hacher.</t>
   </si>
   <si>
-    <t> Ils ont conquis la Chine, la Perse, le Turkestan et la Russie.</t>
-  </si>
-  <si>
-    <t> En 653 avant JC, le roi saïte Psamtik Ier parvint à chasser les Assyriens avec l'aide de mercenaires grecs, recrutés pour former la première marine égyptienne.</t>
-  </si>
-  <si>
-    <t> Les suites qui ne tendent pas vers l’infini sont dites bornées.</t>
-  </si>
-  <si>
-    <t> La limite uniforme a des propriétés « plus agréables » que la limite ponctuelle.</t>
-  </si>
-  <si>
-    <t> Une équation différentielle partielle stochastique (SPDE) est une équation qui généralise les SDE pour inclure les processus de bruit spatio-temporel, avec des applications en théorie quantique des champs et en mécanique statistique.</t>
-  </si>
-  <si>
-    <t> Il peut être prouvé que cela équivaut à une convergence absolue.</t>
-  </si>
-  <si>
-    <t> Notation Big O : utilisée pour décrire le comportement limite d'une fonction lorsque l'argument tend vers une valeur particulière ou l'infini</t>
+    <t>Ils ont conquis la Chine, la Perse, le Turkestan et la Russie.</t>
+  </si>
+  <si>
+    <t>En 653 avant JC, le roi saïte Psamtik Ier parvint à chasser les Assyriens avec l'aide de mercenaires grecs, recrutés pour former la première marine égyptienne.</t>
+  </si>
+  <si>
+    <t>Les suites qui ne tendent pas vers l’infini sont dites bornées.</t>
+  </si>
+  <si>
+    <t>La limite uniforme a des propriétés « plus agréables » que la limite ponctuelle.</t>
+  </si>
+  <si>
+    <t>Une équation différentielle partielle stochastique (SPDE) est une équation qui généralise les SDE pour inclure les processus de bruit spatio-temporel, avec des applications en théorie quantique des champs et en mécanique statistique.</t>
+  </si>
+  <si>
+    <t>Il peut être prouvé que cela équivaut à une convergence absolue.</t>
+  </si>
+  <si>
+    <t>Notation Big O : utilisée pour décrire le comportement limite d'une fonction lorsque l'argument tend vers une valeur particulière ou l'infini</t>
   </si>
   <si>
     <t>L'utilisation de la mesure a été développée pour permettre l'enregistrement et la comparaison d'observations faites à différents moments et lieux, par différentes personnes.</t>
   </si>
   <si>
-    <t> Les cellules eucaryotes possèdent également un cytosquelette composé de microtubules, de filaments intermédiaires et de microfilaments, qui fournissent tous un support à la cellule et participent au mouvement de la cellule et de ses organites.</t>
-  </si>
-  <si>
-    <t> Ainsi, deux personnes peuvent voir le même événement et en repartir avec des perceptions totalement différentes, voire en désaccord sur des faits simples.</t>
-  </si>
-  <si>
-    <t> Certains animaux sont capables de reproduction asexuée, ce qui aboutit souvent à un clone génétique du parent.</t>
-  </si>
-  <si>
-    <t> Cependant, même en utilisant ces méthodes améliorées, le nombre total d’espèces bactériennes n’est pas connu et ne peut même pas être estimé avec certitude.</t>
-  </si>
-  <si>
-    <t> Hook a également déclaré que les humanistes soutiennent l'élimination de la faim et l'amélioration de la santé, du logement et de l'éducation.</t>
+    <t>Les cellules eucaryotes possèdent également un cytosquelette composé de microtubules, de filaments intermédiaires et de microfilaments, qui fournissent tous un support à la cellule et participent au mouvement de la cellule et de ses organites.</t>
+  </si>
+  <si>
+    <t>Ainsi, deux personnes peuvent voir le même événement et en repartir avec des perceptions totalement différentes, voire en désaccord sur des faits simples.</t>
+  </si>
+  <si>
+    <t>Certains animaux sont capables de reproduction asexuée, ce qui aboutit souvent à un clone génétique du parent.</t>
+  </si>
+  <si>
+    <t>Cependant, même en utilisant ces méthodes améliorées, le nombre total d’espèces bactériennes n’est pas connu et ne peut même pas être estimé avec certitude.</t>
+  </si>
+  <si>
+    <t>Hook a également déclaré que les humanistes soutiennent l'élimination de la faim et l'amélioration de la santé, du logement et de l'éducation.</t>
   </si>
   <si>
     <t>Ce point de vue s’oppose à la fois aux idéologies réformiste et communiste léniniste, qui mettent respectivement l’accent sur le gouvernement parlementaire et institutionnel en appliquant des réformes sociales d’une part, et les partis d’avant-garde et le centralisme démocratique participatif d’autre part.</t>
   </si>
   <si>
-    <t> Le fascisme est délibérément et entièrement non démocratique et antidémocratique.</t>
-  </si>
-  <si>
-    <t> Avec la religion égyptienne, indienne, mésopotamienne, soudanienne, proto-indo-européenne reconstruite et d'autres, le monarque exerçait des fonctions sacrées directement liées au sacrifice et était parfois identifié à une ascendance divine, établissant peut-être une notion de droit divin des rois.</t>
-  </si>
-  <si>
-    <t> Des estimations plus élevées sont critiquées parce qu’elles sont basées sur des données rares et incomplètes alors que des erreurs significatives sont inévitables, biaisées vers des valeurs possibles plus élevées, et que les victimes des guerres civiles, de l’Holodomor et d’autres famines, ainsi que les événements liés à la guerre ne devraient pas être inclus.</t>
+    <t>Le fascisme est délibérément et entièrement non démocratique et antidémocratique.</t>
+  </si>
+  <si>
+    <t>Avec la religion égyptienne, indienne, mésopotamienne, soudanienne, proto-indo-européenne reconstruite et d'autres, le monarque exerçait des fonctions sacrées directement liées au sacrifice et était parfois identifié à une ascendance divine, établissant peut-être une notion de droit divin des rois.</t>
+  </si>
+  <si>
+    <t>Des estimations plus élevées sont critiquées parce qu’elles sont basées sur des données rares et incomplètes alors que des erreurs significatives sont inévitables, biaisées vers des valeurs possibles plus élevées, et que les victimes des guerres civiles, de l’Holodomor et d’autres famines, ainsi que les événements liés à la guerre ne devraient pas être inclus.</t>
   </si>
   <si>
     <t>Organisation des connaissances : les applications de la compréhension de la psychologie cognitive sur la manière dont les connaissances sont organisées dans le cerveau ont constitué une préoccupation majeure dans le domaine de l'éducation ces dernières années.</t>
   </si>
   <si>
-    <t> L'accès à la mémoire sémantique varie de légèrement à extrêmement exigeant, en fonction d'un certain nombre de variables, notamment la récence du codage de l'information, le nombre d'associations qu'elle a avec d'autres informations, la fréquence d'accès et les niveaux de signification (la profondeur de l'information). a été traité lors de son encodage).</t>
-  </si>
-  <si>
-    <t> Cette perspective était implicite dans le positivisme sociologique original de Comte, mais a été entièrement théorisée par Durkheim, toujours en ce qui concerne les lois structurelles observables.</t>
-  </si>
-  <si>
-    <t> Cette approche est principalement associée à Michael Burawoy qui l'oppose à la sociologie professionnelle, une forme de sociologie académique qui s'intéresse principalement à s'adresser à d'autres sociologues professionnels.</t>
+    <t>L'accès à la mémoire sémantique varie de légèrement à extrêmement exigeant, en fonction d'un certain nombre de variables, notamment la récence du codage de l'information, le nombre d'associations qu'elle a avec d'autres informations, la fréquence d'accès et les niveaux de signification (la profondeur de l'information). a été traité lors de son encodage).</t>
+  </si>
+  <si>
+    <t>Cette perspective était implicite dans le positivisme sociologique original de Comte, mais a été entièrement théorisée par Durkheim, toujours en ce qui concerne les lois structurelles observables.</t>
+  </si>
+  <si>
+    <t>Cette approche est principalement associée à Michael Burawoy qui l'oppose à la sociologie professionnelle, une forme de sociologie académique qui s'intéresse principalement à s'adresser à d'autres sociologues professionnels.</t>
   </si>
   <si>
     <t>La sociologie des technologies de la communication et de l'information comprend « les aspects sociaux de l'informatique, d'Internet, des nouveaux médias, des réseaux informatiques et d'autres technologies de la communication et de l'information ».</t>
   </si>
   <si>
-    <t> Les éléments sont accessibles à l'aide d'un index entier pour spécifier quel élément est requis.</t>
-  </si>
-  <si>
-    <t> Cela facilite la refactorisation du code, en permettant par exemple à l'auteur de la classe de modifier la façon dont les objets de cette classe représentent leurs données en interne sans modifier le code externe (tant que les appels de méthode « publique » fonctionnent de la même manière).</t>
-  </si>
-  <si>
-    <t> Les pannes se produisent lorsque l’alimentation est complètement coupée.</t>
-  </si>
-  <si>
-    <t> Le système produisait jusqu'à 1 kW de puissance à l'extrémité du récepteur.</t>
-  </si>
-  <si>
-    <t> Au Royaume-Uni, les coûts de transport sont d'environ 0,2 pence par kWh, contre un prix intérieur livré d'environ 10 pence par kWh. Des recherches évaluent le niveau de dépenses en capital sur le marché des équipements de T&amp;D d'énergie électrique qui atteindra 128,9 milliards de dollars en 2011.</t>
+    <t>Les éléments sont accessibles à l'aide d'un index entier pour spécifier quel élément est requis.</t>
+  </si>
+  <si>
+    <t>Cela facilite la refactorisation du code, en permettant par exemple à l'auteur de la classe de modifier la façon dont les objets de cette classe représentent leurs données en interne sans modifier le code externe (tant que les appels de méthode « publique » fonctionnent de la même manière).</t>
+  </si>
+  <si>
+    <t>Les pannes se produisent lorsque l’alimentation est complètement coupée.</t>
+  </si>
+  <si>
+    <t>Le système produisait jusqu'à 1 kW de puissance à l'extrémité du récepteur.</t>
+  </si>
+  <si>
+    <t>Au Royaume-Uni, les coûts de transport sont d'environ 0,2 pence par kWh, contre un prix intérieur livré d'environ 10 pence par kWh. Des recherches évaluent le niveau de dépenses en capital sur le marché des équipements de T&amp;D d'énergie électrique qui atteindra 128,9 milliards de dollars en 2011.</t>
   </si>
   <si>
     <t>Tu gâches toutes tes chances, dit tristement l'ami, et le visage que tu vois ne vaut pas le sacrifice.</t>
   </si>
   <si>
-    <t> Son avis fut de nouveau suivi lorsqu'il fallut décider du plan d'éducation du jeune prince de Galles.</t>
-  </si>
-  <si>
-    <t> La princesse Victoire Marie Louise était la fille cadette du duc de Saxe-Cobourg et veuve du prince Charles de Leiningen, qui à sa mort l'avait laissée régente de sa principauté.</t>
-  </si>
-  <si>
-    <t> Peu de règnes, voire aucun, dans l'histoire ont été aussi irréprochables que le sien, et sa vie domestique était parfaite dans son harmonie et le dévouement des membres de sa famille les uns envers les autres.</t>
+    <t>Son avis fut de nouveau suivi lorsqu'il fallut décider du plan d'éducation du jeune prince de Galles.</t>
+  </si>
+  <si>
+    <t>La princesse Victoire Marie Louise était la fille cadette du duc de Saxe-Cobourg et veuve du prince Charles de Leiningen, qui à sa mort l'avait laissée régente de sa principauté.</t>
+  </si>
+  <si>
+    <t>Peu de règnes, voire aucun, dans l'histoire ont été aussi irréprochables que le sien, et sa vie domestique était parfaite dans son harmonie et le dévouement des membres de sa famille les uns envers les autres.</t>
   </si>
   <si>
     <t>La lumière dorée sur l'eau, les marbres nacrés et teintés, les voiles gaies des galères qui balayaient les lagons comme des papillons peints, le large plan d'eau se terminant par le mystère de l'horizon lointain, tout cela pénétrait dans leurs cœurs. , et il n’était pas étonnant qu’ils s’efforcent de peindre la couleur par-dessus tout, et qu’ils atteignent enfin une perfection qu’aucune autre école de peintres n’a égalée.</t>
   </si>
   <si>
-    <t> J'ai survolé un peu toutes les parties du monde ; et c'est vrai que la géographie m'a été très utile.</t>
-  </si>
-  <si>
-    <t> La sixième planète était dix fois plus grande que la précédente.</t>
-  </si>
-  <si>
-    <t> Et j'ai lancé une explication avec ça.</t>
-  </si>
-  <si>
-    <t> Quand on veut jouer au beau, on s'éloigne parfois un peu de la vérité.</t>
-  </si>
-  <si>
-    <t> Cet astéroïde n’a été vu qu’une seule fois au télescope.</t>
+    <t>J'ai survolé un peu toutes les parties du monde ; et c'est vrai que la géographie m'a été très utile.</t>
+  </si>
+  <si>
+    <t>La sixième planète était dix fois plus grande que la précédente.</t>
+  </si>
+  <si>
+    <t>Et j'ai lancé une explication avec ça.</t>
+  </si>
+  <si>
+    <t>Quand on veut jouer au beau, on s'éloigne parfois un peu de la vérité.</t>
+  </si>
+  <si>
+    <t>Cet astéroïde n’a été vu qu’une seule fois au télescope.</t>
   </si>
   <si>
     <t>La question doit être jugée par des preuves externes et internes ; la langue et le type physique de notre race fournissent certaines données pour l'essayer, et d'autres données sont fournies par notre littérature, notre génie et notre production spirituelle en général.</t>
   </si>
   <si>
-    <t> Et Cérès, le génie de l'arche, se retrouve bien sûr dans Ceridwen, « la Cérès britannique, la déesse arkite qui nous initie aux mystères les plus profonds de la superstition arkite ».</t>
-  </si>
-  <si>
-    <t> Et puis, d'ailleurs, à notre connaissance du génie celtique, M. Norris nous a apporté de Cornouailles, M. de la Villemarqué de Bretagne, des apports, insignifiants en quantité, si on les compare à la masse des matériaux irlandais existants, mais loin d'être insignifiant en valeur.</t>
-  </si>
-  <si>
-    <t> « « Fondez donc une église », dit le saint, « qui ne sera pas trop près de nous » (c'est-à-dire de sa propre église d'Armagh) « pour la familiarité, ni trop loin de nous pour les relations sexuelles. »</t>
+    <t>Et Cérès, le génie de l'arche, se retrouve bien sûr dans Ceridwen, « la Cérès britannique, la déesse arkite qui nous initie aux mystères les plus profonds de la superstition arkite ».</t>
+  </si>
+  <si>
+    <t>Et puis, d'ailleurs, à notre connaissance du génie celtique, M. Norris nous a apporté de Cornouailles, M. de la Villemarqué de Bretagne, des apports, insignifiants en quantité, si on les compare à la masse des matériaux irlandais existants, mais loin d'être insignifiant en valeur.</t>
+  </si>
+  <si>
+    <t>« « Fondez donc une église », dit le saint, « qui ne sera pas trop près de nous » (c'est-à-dire de sa propre église d'Armagh) « pour la familiarité, ni trop loin de nous pour les relations sexuelles. »</t>
   </si>
   <si>
     <t>Et Peredur se leva et compara la noirceur du corbeau, la blancheur de la neige et la rougeur du sang, aux cheveux de la dame qu'il aimait le plus, qui étaient plus noirs que le corbeau, et à sa peau, qui était plus noire que le corbeau. plus blanche que la neige, et à ses deux joues, qui étaient plus rouges que le sang sur la neige ne paraissait l'être.</t>
   </si>
   <si>
-    <t> Ces deux années s'élèvent comme deux montagnes à mi-chemin entre celles qui les précèdent et celles qui les suivent.</t>
-  </si>
-  <si>
-    <t> Aucun de ces jeunes hommes n’a prononcé le mot : L’Empereur.</t>
-  </si>
-  <si>
-    <t> «C'est une grande chance», dit le vieil homme d'un ton de reproche.</t>
-  </si>
-  <si>
-    <t> Au fond, nous le constaterons, il n’y avait rien dans tout cela qui ne fût extrêmement grave.</t>
-  </si>
-  <si>
-    <t> Un creuset dans lequel le destin jette un homme, chaque fois qu'il désire un scélérat ou un demi-dieu.</t>
-  </si>
-  <si>
-    <t> S'IL VOUS PLAÎT, ne me recommandez PAS le Da Vinci Code parce que vous le trouvez génial.</t>
-  </si>
-  <si>
-    <t> Je recommande vivement cette série !</t>
-  </si>
-  <si>
-    <t> Les personnages ne sont pas sympathiques et l'histoire est extrêmement lente… et rien ne m'oblige à continuer la lecture.</t>
+    <t>Ces deux années s'élèvent comme deux montagnes à mi-chemin entre celles qui les précèdent et celles qui les suivent.</t>
+  </si>
+  <si>
+    <t>Aucun de ces jeunes hommes n’a prononcé le mot : L’Empereur.</t>
+  </si>
+  <si>
+    <t>«C'est une grande chance», dit le vieil homme d'un ton de reproche.</t>
+  </si>
+  <si>
+    <t>Au fond, nous le constaterons, il n’y avait rien dans tout cela qui ne fût extrêmement grave.</t>
+  </si>
+  <si>
+    <t>Un creuset dans lequel le destin jette un homme, chaque fois qu'il désire un scélérat ou un demi-dieu.</t>
+  </si>
+  <si>
+    <t>S'IL VOUS PLAÎT, ne me recommandez PAS le Da Vinci Code parce que vous le trouvez génial.</t>
+  </si>
+  <si>
+    <t>Je recommande vivement cette série !</t>
+  </si>
+  <si>
+    <t>Les personnages ne sont pas sympathiques et l'histoire est extrêmement lente… et rien ne m'oblige à continuer la lecture.</t>
   </si>
   <si>
     <t>Lors du dîner ce soir-là au domicile d'Ackroyd à Fernly Park, ses invités incluent sa belle-sœur Mme Cecil Ackroyd et sa fille Flora, le chasseur de gros gibier Major Blunt, le secrétaire personnel d'Ackroyd Geoffrey Raymond et le Dr James Sheppard, qu'Ackroyd a invité plus tôt. Ce jour là.</t>
   </si>
   <si>
-    <t> Nous voyons à quel point ceux qui résistent à l’occupation sont en désaccord les uns avec les autres sur la manière de résister.</t>
-  </si>
-  <si>
-    <t> Ils ont fini par mettre une retenue sur notre compte pour les faux frais et le montant total de la chambre pour notre séjour, même si la chambre avait déjà été payée.</t>
-  </si>
-  <si>
-    <t> J'ai mangé dans plusieurs restaurants et apprécié la variété de la cuisine.</t>
-  </si>
-  <si>
-    <t> Personnel vraiment génial.</t>
-  </si>
-  <si>
-    <t> Personnel très sympathique pendant le petit-déjeuner. Très proche de l'autoroute, à seulement quelques kilomètres du stade KC Royals.</t>
-  </si>
-  <si>
-    <t> Cela a dépassé toutes nos attentes en matière de service, de rapport qualité-prix et d'emplacement.</t>
-  </si>
-  <si>
-    <t> Le scénario original développe avec précision la situation et les personnages, à l'aide de flashbacks et de répliques magnifiques.</t>
+    <t>Nous voyons à quel point ceux qui résistent à l’occupation sont en désaccord les uns avec les autres sur la manière de résister.</t>
+  </si>
+  <si>
+    <t>Ils ont fini par mettre une retenue sur notre compte pour les faux frais et le montant total de la chambre pour notre séjour, même si la chambre avait déjà été payée.</t>
+  </si>
+  <si>
+    <t>J'ai mangé dans plusieurs restaurants et apprécié la variété de la cuisine.</t>
+  </si>
+  <si>
+    <t>Personnel vraiment génial.</t>
+  </si>
+  <si>
+    <t>Personnel très sympathique pendant le petit-déjeuner. Très proche de l'autoroute, à seulement quelques kilomètres du stade KC Royals.</t>
+  </si>
+  <si>
+    <t>Cela a dépassé toutes nos attentes en matière de service, de rapport qualité-prix et d'emplacement.</t>
+  </si>
+  <si>
+    <t>Le scénario original développe avec précision la situation et les personnages, à l'aide de flashbacks et de répliques magnifiques.</t>
   </si>
   <si>
     <t>Et puis il en traîne encore pour faire bonne mesure. Il n'a pas non plus de véritable raison de se dérouler en 1984 autre que le titre et "Welcome to the Pleasuredome" de Frankie Goes to Hollywood utilisés dans une scène.</t>
   </si>
   <si>
-    <t> Ici, dans A Christmas Story, ce n'est pas seulement le meilleur que j'ai vu réaliser par Clark, mais je pense que c'est aussi son meilleur film. J'adore les films de Noël, et même si A Christmas Story n'est pas mon préféré absolu, je pense qu'il le mérite pleinement. son titre de trésor de Noël intemporel.</t>
-  </si>
-  <si>
-    <t> Cette partie fonctionne toujours.</t>
-  </si>
-  <si>
-    <t> Il est classé « PG-13 » pour l'action et la violence et a une durée de 2 heures et 31 minutes.</t>
-  </si>
-  <si>
-    <t> Facile à charger, reste dans mes oreilles et offre une excellente qualité sonore.</t>
-  </si>
-  <si>
-    <t> Mais pas du tout durable.</t>
-  </si>
-  <si>
-    <t> Disque défectueux, arrêté environ 5 à 10 minutes avant la fin du film.</t>
-  </si>
-  <si>
-    <t> Ça ne marche pas et ça sent vraiment mauvais</t>
-  </si>
-  <si>
-    <t> La salade contenait juste ce qu'il fallait de sauce pour ne pas surcharger les pétoncles, qui étaient parfaitement cuits.</t>
+    <t>Ici, dans A Christmas Story, ce n'est pas seulement le meilleur que j'ai vu réaliser par Clark, mais je pense que c'est aussi son meilleur film. J'adore les films de Noël, et même si A Christmas Story n'est pas mon préféré absolu, je pense qu'il le mérite pleinement. son titre de trésor de Noël intemporel.</t>
+  </si>
+  <si>
+    <t>Cette partie fonctionne toujours.</t>
+  </si>
+  <si>
+    <t>Il est classé « PG-13 » pour l'action et la violence et a une durée de 2 heures et 31 minutes.</t>
+  </si>
+  <si>
+    <t>Facile à charger, reste dans mes oreilles et offre une excellente qualité sonore.</t>
+  </si>
+  <si>
+    <t>Mais pas du tout durable.</t>
+  </si>
+  <si>
+    <t>Disque défectueux, arrêté environ 5 à 10 minutes avant la fin du film.</t>
+  </si>
+  <si>
+    <t>Ça ne marche pas et ça sent vraiment mauvais</t>
+  </si>
+  <si>
+    <t>La salade contenait juste ce qu'il fallait de sauce pour ne pas surcharger les pétoncles, qui étaient parfaitement cuits.</t>
   </si>
   <si>
     <t>La nourriture était à peine tiède, elle devait donc attendre que le serveur nous la présente.</t>
   </si>
   <si>
-    <t> C'est comme une soirée vraiment sexy dans votre bouche, où vous flirtez outrageusement avec la personne la plus sexy de la fête.</t>
-  </si>
-  <si>
-    <t> Cela est dû au fait qu'il a fallu 20 minutes pour être reconnu, puis 35 minutes supplémentaires pour obtenir notre nourriture...et ils n'arrêtaient pas d'oublier des choses.</t>
-  </si>
-  <si>
-    <t> À ce stade, mes amis et moi avions essentiellement compris que cet endroit était une blague et cela ne nous dérangeait pas de le faire connaître publiquement et haut et fort.</t>
-  </si>
-  <si>
-    <t> points = bbox2points(rectangle) convertit le rectangle d'entrée, spécifié comme [xy width height] en une liste de quatre points d'angle [xy].</t>
-  </si>
-  <si>
-    <t> y = logspace(a,b) génère un vecteur ligne y de 50 points espacés logarithmiquement entre les décennies 10^a et 10^b.</t>
-  </si>
-  <si>
-    <t> La taille du rang doit être la même que celle de la colonne.</t>
-  </si>
-  <si>
-    <t> Si vous définissez la palette de couleurs de la figure, les axes et les graphiques de la figure utilisent la même palette de couleurs.</t>
+    <t>C'est comme une soirée vraiment sexy dans votre bouche, où vous flirtez outrageusement avec la personne la plus sexy de la fête.</t>
+  </si>
+  <si>
+    <t>Cela est dû au fait qu'il a fallu 20 minutes pour être reconnu, puis 35 minutes supplémentaires pour obtenir notre nourriture...et ils n'arrêtaient pas d'oublier des choses.</t>
+  </si>
+  <si>
+    <t>À ce stade, mes amis et moi avions essentiellement compris que cet endroit était une blague et cela ne nous dérangeait pas de le faire connaître publiquement et haut et fort.</t>
+  </si>
+  <si>
+    <t>points = bbox2points(rectangle) convertit le rectangle d'entrée, spécifié comme [xy width height] en une liste de quatre points d'angle [xy].</t>
+  </si>
+  <si>
+    <t>y = logspace(a,b) génère un vecteur ligne y de 50 points espacés logarithmiquement entre les décennies 10^a et 10^b.</t>
+  </si>
+  <si>
+    <t>La taille du rang doit être la même que celle de la colonne.</t>
+  </si>
+  <si>
+    <t>Si vous définissez la palette de couleurs de la figure, les axes et les graphiques de la figure utilisent la même palette de couleurs.</t>
   </si>
   <si>
     <t>Pour la plupart des formats de fichiers image, imread utilise 8 bits ou moins par plan de couleur pour stocker les pixels de l'image.</t>
   </si>
   <si>
-    <t> Pour faire une lecture, cassez l'œuf sur un verre d'eau.</t>
-  </si>
-  <si>
-    <t> Asseyez-vous dans une position confortable et concentrez-vous sur votre intention d’éliminer les énergies négatives.</t>
-  </si>
-  <si>
-    <t> Faites 12 répétitions dans chaque série.</t>
-  </si>
-  <si>
-    <t> Inclinez la lame à un angle de 45 degrés vers la tige et poussez-la dans la citrouille.</t>
-  </si>
-  <si>
-    <t> C'est ce qu'on appelle souvent une pompe de brochet.</t>
-  </si>
-  <si>
-    <t> Servir chaud.</t>
-  </si>
-  <si>
-    <t> Remuer constamment jusqu'à ce que le mélange épaississe, environ 5 minutes.</t>
-  </si>
-  <si>
-    <t> Placez le couvercle sur le mélange et poursuivez la cuisson encore 10 minutes en remuant de temps en temps.</t>
-  </si>
-  <si>
-    <t> Tapisser un moule carré de 9 pouces ou 13 x 9 pouces de papier d'aluminium de manière à ce que le papier d'aluminium s'étende sur les côtés du moule; feuille de beurre.</t>
-  </si>
-  <si>
-    <t> Placez une poêle non huilée sur feu moyen et testez sa température de surface en plaçant votre main dessus.</t>
-  </si>
-  <si>
-    <t> Vous pouvez configurer les connexions à différents types de réseaux Wi-Fi et de points d'accès, gérer les réseaux enregistrés et rechercher les adresses réseau de votre appareil</t>
+    <t>Pour faire une lecture, cassez l'œuf sur un verre d'eau.</t>
+  </si>
+  <si>
+    <t>Asseyez-vous dans une position confortable et concentrez-vous sur votre intention d’éliminer les énergies négatives.</t>
+  </si>
+  <si>
+    <t>Faites 12 répétitions dans chaque série.</t>
+  </si>
+  <si>
+    <t>Inclinez la lame à un angle de 45 degrés vers la tige et poussez-la dans la citrouille.</t>
+  </si>
+  <si>
+    <t>C'est ce qu'on appelle souvent une pompe de brochet.</t>
+  </si>
+  <si>
+    <t>Servir chaud.</t>
+  </si>
+  <si>
+    <t>Remuer constamment jusqu'à ce que le mélange épaississe, environ 5 minutes.</t>
+  </si>
+  <si>
+    <t>Placez le couvercle sur le mélange et poursuivez la cuisson encore 10 minutes en remuant de temps en temps.</t>
+  </si>
+  <si>
+    <t>Tapisser un moule carré de 9 pouces ou 13 x 9 pouces de papier d'aluminium de manière à ce que le papier d'aluminium s'étende sur les côtés du moule; feuille de beurre.</t>
+  </si>
+  <si>
+    <t>Placez une poêle non huilée sur feu moyen et testez sa température de surface en plaçant votre main dessus.</t>
+  </si>
+  <si>
+    <t>Vous pouvez configurer les connexions à différents types de réseaux Wi-Fi et de points d'accès, gérer les réseaux enregistrés et rechercher les adresses réseau de votre appareil</t>
   </si>
   <si>
     <t>L'appareil vers lequel vous effectuez le transfert doit prendre en charge NFC et doit se trouver à moins de quatre centimètres de votre appareil.</t>
   </si>
   <si>
-    <t> Affichez et gérez les fichiers stockés sur votre appareil, notamment les images, les vidéos, la musique et les extraits sonores.</t>
-  </si>
-  <si>
-    <t> Android Auto apporte les applications les plus utiles sur l'écran de votre appareil ou sur l'écran de votre voiture compatible dans un format qui vous permet de vous concentrer facilement sur la conduite.</t>
-  </si>
-  <si>
-    <t> Les paramètres de contrôle parental doivent être activés pour garantir que les enfants n'ont pas accès à des services ou à du contenu non approuvés par le parent.</t>
-  </si>
-  <si>
-    <t> Les membres de la communauté doivent utiliser Zoom/assister aux sessions lorsqu'ils se trouvent dans un espace dans lequel ils sont capables de se concentrer et de ne pas mettre en danger eux-mêmes ou les autres.</t>
-  </si>
-  <si>
-    <t> Si vous pensez que la formulation de ce document doit être modifiée, n'hésitez pas à contacter n'importe quel organisateur de la Fatima Fellowship via Slack ou à l'adresse e-mail fournie sur le site Web du programme.</t>
+    <t>Affichez et gérez les fichiers stockés sur votre appareil, notamment les images, les vidéos, la musique et les extraits sonores.</t>
+  </si>
+  <si>
+    <t>Android Auto apporte les applications les plus utiles sur l'écran de votre appareil ou sur l'écran de votre voiture compatible dans un format qui vous permet de vous concentrer facilement sur la conduite.</t>
+  </si>
+  <si>
+    <t>Les paramètres de contrôle parental doivent être activés pour garantir que les enfants n'ont pas accès à des services ou à du contenu non approuvés par le parent.</t>
+  </si>
+  <si>
+    <t>Les membres de la communauté doivent utiliser Zoom/assister aux sessions lorsqu'ils se trouvent dans un espace dans lequel ils sont capables de se concentrer et de ne pas mettre en danger eux-mêmes ou les autres.</t>
+  </si>
+  <si>
+    <t>Si vous pensez que la formulation de ce document doit être modifiée, n'hésitez pas à contacter n'importe quel organisateur de la Fatima Fellowship via Slack ou à l'adresse e-mail fournie sur le site Web du programme.</t>
   </si>
   <si>
     <t>La création d'un formulaire d'enregistrement dans le but de signaler une violation du code de conduite est autorisée uniquement dans le but mentionné, et uniquement lorsqu'elle est partagée avec un organisateur désigné par Fatima Fellowship pour gérer de telles violations.</t>
   </si>
   <si>
-    <t> Nous reconnaissons que notre travail en tant que chercheurs dépend souvent des contributions des autres.</t>
-  </si>
-  <si>
-    <t> La participation à Fatima Fellowship en tant qu'organisateur, mentor ou boursier ne constitue pas une agence, un partenariat ou une coentreprise entre vous et Fatima Fellowship et/ou tout autre membre de la communauté, ou son institution d'origine.</t>
-  </si>
-  <si>
-    <t> Si une action en justice est nécessaire pour faire respecter les termes de ce contrat, la partie gagnante aura droit à des honoraires d'avocat raisonnables en plus de tout autre recours auquel cette partie pourrait légalement avoir droit.</t>
-  </si>
-  <si>
-    <t> Dans un tel cas, tout montant impayé deviendra immédiatement dû et payable au Contractant.</t>
+    <t>Nous reconnaissons que notre travail en tant que chercheurs dépend souvent des contributions des autres.</t>
+  </si>
+  <si>
+    <t>La participation à Fatima Fellowship en tant qu'organisateur, mentor ou boursier ne constitue pas une agence, un partenariat ou une coentreprise entre vous et Fatima Fellowship et/ou tout autre membre de la communauté, ou son institution d'origine.</t>
+  </si>
+  <si>
+    <t>Si une action en justice est nécessaire pour faire respecter les termes de ce contrat, la partie gagnante aura droit à des honoraires d'avocat raisonnables en plus de tout autre recours auquel cette partie pourrait légalement avoir droit.</t>
+  </si>
+  <si>
+    <t>Dans un tel cas, tout montant impayé deviendra immédiatement dû et payable au Contractant.</t>
   </si>
   <si>
     <t>Chacune des parties peut choisir d'être exonérée de toute autre obligation de performance en cas d'événement désastreux indépendant de la volonté de l'une ou l'autre partie qui affecte matériellement l'exécution des Services, tel que : un cas de force majeure (incendies, explosions, tremblements de terre, ouragan, catastrophe naturelle) catastrophes, inondations, tempêtes ou infestations), ou guerre, invasion, acte d'ennemis étrangers, embargo ou autre hostilité (déclarée ou non), ou toute situation dangereuse créée hors du contrôle de l'une ou l'autre des parties, telle qu'une émeute, un désordre, une catastrophe nucléaire. fuite ou explosion, ou acte ou menace de terrorisme.</t>
   </si>
   <si>
-    <t> Les titres et en-têtes de section du présent Contrat sont fournis à titre de commodité uniquement et ne doivent pas être interprétés comme faisant partie du présent Contrat.</t>
-  </si>
-  <si>
-    <t> Chaque équipe est tenue d'affronter tous les membres éligibles de l'équipe à chaque match, à moins qu'un joueur ne soit blessé ou n'ait été expulsé pour des raisons disciplinaires.</t>
-  </si>
-  <si>
-    <t> Une tranche d'âge peut être ajoutée s'il y a un nombre suffisant de concurrents dans la tranche d'âge de 30 ans et plus.</t>
+    <t>Les titres et en-têtes de section du présent Contrat sont fournis à titre de commodité uniquement et ne doivent pas être interprétés comme faisant partie du présent Contrat.</t>
+  </si>
+  <si>
+    <t>Chaque équipe est tenue d'affronter tous les membres éligibles de l'équipe à chaque match, à moins qu'un joueur ne soit blessé ou n'ait été expulsé pour des raisons disciplinaires.</t>
+  </si>
+  <si>
+    <t>Une tranche d'âge peut être ajoutée s'il y a un nombre suffisant de concurrents dans la tranche d'âge de 30 ans et plus.</t>
   </si>
   <si>
     <t>Si un délégué des Sports Unifiés détermine qu'un joueur domine le jeu, cet officiel sanctionnera l'entraîneur.</t>
   </si>
   <si>
-    <t> Tout individu, équipe ou délégation qui refuse de concourir ou de participer aux Jeux ou activités Special Olympics sur la base de l'origine ethnique, du sexe, de la religion, de l'affiliation politique de ses camarades athlètes Special Olympics dans ces activités, sera disqualifié de la participation aux jeux ou événement en question et non éligible à des prix ou à une reconnaissance lors de cet événement</t>
-  </si>
-  <si>
-    <t> Si un membre d'une équipe est âgé de 14 à 17 ans, l'écart entre le membre le plus jeune et le plus âgé de l'équipe ne doit pas dépasser 5 ans.</t>
-  </si>
-  <si>
-    <t> Le vice-président des États-Unis sera président du Sénat, mais n'aura pas de droit de vote, à moins qu'ils ne soient divisés à parts égales.</t>
+    <t>Tout individu, équipe ou délégation qui refuse de concourir ou de participer aux Jeux ou activités Special Olympics sur la base de l'origine ethnique, du sexe, de la religion, de l'affiliation politique de ses camarades athlètes Special Olympics dans ces activités, sera disqualifié de la participation aux jeux ou événement en question et non éligible à des prix ou à une reconnaissance lors de cet événement</t>
+  </si>
+  <si>
+    <t>Si un membre d'une équipe est âgé de 14 à 17 ans, l'écart entre le membre le plus jeune et le plus âgé de l'équipe ne doit pas dépasser 5 ans.</t>
+  </si>
+  <si>
+    <t>Le vice-président des États-Unis sera président du Sénat, mais n'aura pas de droit de vote, à moins qu'ils ne soient divisés à parts égales.</t>
   </si>
   <si>
     <t>Les juges, tant des cours suprêmes que des cours inférieures, exerceront leurs fonctions pendant bonne conduite et recevront, aux moments fixés, pour leurs services, une compensation qui ne sera pas diminuée pendant leur maintien en fonction.</t>
   </si>
   <si>
-    <t> Le transport ou l'importation dans tout État, territoire ou possession des États-Unis pour la livraison ou l'utilisation de boissons enivrantes, en violation de leurs lois, est interdit par la présente.</t>
-  </si>
-  <si>
-    <t> En ce qui concerne la demande d'aide inefficace de Thomas, le comité a déterminé que le tribunal d'habeas de l'État n'était pas objectivement déraisonnable en concluant que l'avocat du procès n'était pas inefficace, expliquant que l'incapacité de l'avocat à enquêter sur les oppositions du juré numéro cinq et du juré numéro six au mariage ou à la procréation interracial C'était probablement une décision tactique.</t>
-  </si>
-  <si>
-    <t> Si les demandeurs ne demandent et n'obtiennent ni un réexamen accéléré ni des mesures provisoires de la part des tribunaux de New York, ils peuvent retourner devant cette Cour.</t>
+    <t>Le transport ou l'importation dans tout État, territoire ou possession des États-Unis pour la livraison ou l'utilisation de boissons enivrantes, en violation de leurs lois, est interdit par la présente.</t>
+  </si>
+  <si>
+    <t>En ce qui concerne la demande d'aide inefficace de Thomas, le comité a déterminé que le tribunal d'habeas de l'État n'était pas objectivement déraisonnable en concluant que l'avocat du procès n'était pas inefficace, expliquant que l'incapacité de l'avocat à enquêter sur les oppositions du juré numéro cinq et du juré numéro six au mariage ou à la procréation interracial C'était probablement une décision tactique.</t>
+  </si>
+  <si>
+    <t>Si les demandeurs ne demandent et n'obtiennent ni un réexamen accéléré ni des mesures provisoires de la part des tribunaux de New York, ils peuvent retourner devant cette Cour.</t>
   </si>
   <si>
     <t>Il est de notre devoir de défendre la Constitution, même si cela suscite la controverse.</t>
   </si>
   <si>
-    <t> D'autres lois comprennent la loi sur les relations de travail, la loi sur la sécurité, la santé et le bien-être au travail et la loi sur l'indemnisation des accidents du travail.</t>
-  </si>
-  <si>
-    <t> Entre les périodes 2006-2010 et 2010-2014, la participation des femmes au Congrès a légèrement augmenté, passant de 12 à 16 pour cent au Sénat et de 10 à 12 pour cent à la Chambre des représentants ;</t>
-  </si>
-  <si>
-    <t> Les indicateurs comportant des données erratiques/incomplètes comprennent ceux relatifs à la mortalité infantile et à la scolarisation.</t>
-  </si>
-  <si>
-    <t> Nous sommes particulièrement préoccupés par le fait que ces mines frappent sans discernement.</t>
-  </si>
-  <si>
-    <t> La date limite de candidature pour les bourses 2010-2011 a été fixée au 15 août 2009, et le comité de sélection des bourses se réunira au quatrième trimestre 2009 pour examiner les candidatures et attribuer les bourses 2010-2011.</t>
-  </si>
-  <si>
-    <t> Les bactéries mesurent généralement quelques millionièmes de mètre de long.</t>
+    <t>D'autres lois comprennent la loi sur les relations de travail, la loi sur la sécurité, la santé et le bien-être au travail et la loi sur l'indemnisation des accidents du travail.</t>
+  </si>
+  <si>
+    <t>Entre les périodes 2006-2010 et 2010-2014, la participation des femmes au Congrès a légèrement augmenté, passant de 12 à 16 pour cent au Sénat et de 10 à 12 pour cent à la Chambre des représentants ;</t>
+  </si>
+  <si>
+    <t>Les indicateurs comportant des données erratiques/incomplètes comprennent ceux relatifs à la mortalité infantile et à la scolarisation.</t>
+  </si>
+  <si>
+    <t>Nous sommes particulièrement préoccupés par le fait que ces mines frappent sans discernement.</t>
+  </si>
+  <si>
+    <t>La date limite de candidature pour les bourses 2010-2011 a été fixée au 15 août 2009, et le comité de sélection des bourses se réunira au quatrième trimestre 2009 pour examiner les candidatures et attribuer les bourses 2010-2011.</t>
+  </si>
+  <si>
+    <t>Les bactéries mesurent généralement quelques millionièmes de mètre de long.</t>
   </si>
   <si>
     <t>Notre petit globe terrestre est la maison de fous de ces cent milliards de mondes.</t>
   </si>
   <si>
-    <t> C'est si doux dans le cacimbo, quand on est à l'intérieur avec quelque chose de chaud à boire et qu'on l'entend se précipiter à travers les arbres à l'extérieur.</t>
-  </si>
-  <si>
-    <t> Ils peuvent parfois se saponifier, où les graisses corporelles se transforment littéralement en une substance semblable à du savon, mais cela prend un certain temps donc je doute que cela se soit produit ici.</t>
-  </si>
-  <si>
-    <t> C’est précisément à cause de nos préoccupations d’endogénéité concernant les villes que ces trois villes sont exclues de toutes les analyses, tout comme Goldsboro, la ville où la marche s’est terminée après la capitulation de l’opposition confédérée.</t>
-  </si>
-  <si>
-    <t> Notre inclusion dans la spécification principale des effets fixes par comté et des effets fixes par État par décennie, ainsi que des contrôles flexibles basés sur des variables mesurées en 1860, rend cela peu probable, mais cela ne peut pas exclure cette possibilité.</t>
-  </si>
-  <si>
-    <t> En particulier, nous nous concentrons sur l’essor de la location agricole et du métayage au cours de la période post-bellum.</t>
+    <t>C'est si doux dans le cacimbo, quand on est à l'intérieur avec quelque chose de chaud à boire et qu'on l'entend se précipiter à travers les arbres à l'extérieur.</t>
+  </si>
+  <si>
+    <t>Ils peuvent parfois se saponifier, où les graisses corporelles se transforment littéralement en une substance semblable à du savon, mais cela prend un certain temps donc je doute que cela se soit produit ici.</t>
+  </si>
+  <si>
+    <t>C’est précisément à cause de nos préoccupations d’endogénéité concernant les villes que ces trois villes sont exclues de toutes les analyses, tout comme Goldsboro, la ville où la marche s’est terminée après la capitulation de l’opposition confédérée.</t>
+  </si>
+  <si>
+    <t>Notre inclusion dans la spécification principale des effets fixes par comté et des effets fixes par État par décennie, ainsi que des contrôles flexibles basés sur des variables mesurées en 1860, rend cela peu probable, mais cela ne peut pas exclure cette possibilité.</t>
+  </si>
+  <si>
+    <t>En particulier, nous nous concentrons sur l’essor de la location agricole et du métayage au cours de la période post-bellum.</t>
   </si>
   <si>
     <t>Plus récemment, Khan (2015) a montré que la mauvaise allocation des ressources pendant la guerre en raison du déclin de la mobilité géographique et des bénéfices croissants des technologies militaires était de courte durée et n'empêchait pas la capacité à long terme du progrès technologique.</t>
   </si>
   <si>
-    <t> Dans la période immédiatement avant-guerre, l'agriculture se faisait avec des « chevaux Sherman », les vieux animaux « endoloris » et « maltraités » que l'armée de l'Union avait échangés contre de nouvelles promenades le long du chemin de la marche.</t>
-  </si>
-  <si>
-    <t> David Caron avait prévenu que la forme des articles éclipserait les désaccords sur le fond : que, fascinés par leur forme soignée, les praticiens du droit international négligeraient certaines des profondes incertitudes qui persistaient dans certaines parties des articles.</t>
-  </si>
-  <si>
-    <t> Et, de toute évidence, l'exercice de codage de la Commission a cristallisé et forgé de nouveaux concepts et en a clarifié d'autres.</t>
-  </si>
-  <si>
-    <t> Ces discussions ont simplement tendance à s’estomper après s’être ramifiées et s’être enchevêtrées dans de multiples détails et perspectives.</t>
+    <t>Dans la période immédiatement avant-guerre, l'agriculture se faisait avec des « chevaux Sherman », les vieux animaux « endoloris » et « maltraités » que l'armée de l'Union avait échangés contre de nouvelles promenades le long du chemin de la marche.</t>
+  </si>
+  <si>
+    <t>David Caron avait prévenu que la forme des articles éclipserait les désaccords sur le fond : que, fascinés par leur forme soignée, les praticiens du droit international négligeraient certaines des profondes incertitudes qui persistaient dans certaines parties des articles.</t>
+  </si>
+  <si>
+    <t>Et, de toute évidence, l'exercice de codage de la Commission a cristallisé et forgé de nouveaux concepts et en a clarifié d'autres.</t>
+  </si>
+  <si>
+    <t>Ces discussions ont simplement tendance à s’estomper après s’être ramifiées et s’être enchevêtrées dans de multiples détails et perspectives.</t>
   </si>
   <si>
     <t>J'ai en moi une conscience de la mort, affirme Leiris, il doit donc y avoir eu un événement au cours duquel elle a été créée.</t>
   </si>
   <si>
-    <t> Il existe deux sortes d’obstacles à la connaissance de soi, et tous deux peuvent être lus dans la célèbre métaphore de Freud du nombril du rêve.</t>
-  </si>
-  <si>
-    <t> Ce que nous ne pouvons découvrir, dit ici Freud, ce n’est pas un point parmi tant d’autres mais le point, le centre lui-même, le nombril qui nous relie à nos origines les plus profondes.</t>
-  </si>
-  <si>
-    <t> Lorsqu'une pensée incorrecte ou incomplète contribuait à la sélection d'une réponse incorrecte, il fallait du temps pour aider l'élève ou le groupe à corriger ou à réorienter sa pensée dans la bonne direction.</t>
-  </si>
-  <si>
-    <t> À cette fin, nous avons développé une série d'activités d'apprentissage/évaluation en petits groupes (SGL/A) intégrant une pratique de récupération avec une rétroaction structurée que nous avons incluse dans notre cours préclinique de neuroanatomie.</t>
-  </si>
-  <si>
-    <t> Nous avons divisé notre classe de 42 étudiants en six groupes de sept étudiants chacun, chaque groupe étant chargé de travailler ensemble pour répondre aux questions de type ÉTAPE 1.</t>
+    <t>Il existe deux sortes d’obstacles à la connaissance de soi, et tous deux peuvent être lus dans la célèbre métaphore de Freud du nombril du rêve.</t>
+  </si>
+  <si>
+    <t>Ce que nous ne pouvons découvrir, dit ici Freud, ce n’est pas un point parmi tant d’autres mais le point, le centre lui-même, le nombril qui nous relie à nos origines les plus profondes.</t>
+  </si>
+  <si>
+    <t>Lorsqu'une pensée incorrecte ou incomplète contribuait à la sélection d'une réponse incorrecte, il fallait du temps pour aider l'élève ou le groupe à corriger ou à réorienter sa pensée dans la bonne direction.</t>
+  </si>
+  <si>
+    <t>À cette fin, nous avons développé une série d'activités d'apprentissage/évaluation en petits groupes (SGL/A) intégrant une pratique de récupération avec une rétroaction structurée que nous avons incluse dans notre cours préclinique de neuroanatomie.</t>
+  </si>
+  <si>
+    <t>Nous avons divisé notre classe de 42 étudiants en six groupes de sept étudiants chacun, chaque groupe étant chargé de travailler ensemble pour répondre aux questions de type ÉTAPE 1.</t>
   </si>
   <si>
     <t>Mais même du côté politique, le pourcentage d’études adoptant une vision purement politique est en baisse spectaculaire.</t>
   </si>
   <si>
-    <t> Dans leurs analyses approfondies de la littérature sur la communication politique, Bucy et D'Angelo (1999, 2004) identifient trois critiques soutenues de la presse en politique, formulées comme des critiques durables des médias et de la démocratie : l'hypothèse du vidéomalaise, la théorie de l'intrusion des médias et la théorie de l'intrusion sociale. thèse sur l'érosion.</t>
-  </si>
-  <si>
-    <t> Le biais de la science politique précédemment identifié dans la littérature semble s’être atténué, du moins dans les deux revues analysées ici, peut-être en raison de l’explosion de nouvelles plateformes et technologies de diffusion qui se sont intégrées à la politique de manière imprévue.</t>
-  </si>
-  <si>
-    <t> Notamment, comme dans le cas de la communication, une telle convergence permet le partage de connaissances, voire la négociation entre parties prenantes, puisque tout le monde peut parler la même « langue ».</t>
+    <t>Dans leurs analyses approfondies de la littérature sur la communication politique, Bucy et D'Angelo (1999, 2004) identifient trois critiques soutenues de la presse en politique, formulées comme des critiques durables des médias et de la démocratie : l'hypothèse du vidéomalaise, la théorie de l'intrusion des médias et la théorie de l'intrusion sociale. thèse sur l'érosion.</t>
+  </si>
+  <si>
+    <t>Le biais de la science politique précédemment identifié dans la littérature semble s’être atténué, du moins dans les deux revues analysées ici, peut-être en raison de l’explosion de nouvelles plateformes et technologies de diffusion qui se sont intégrées à la politique de manière imprévue.</t>
+  </si>
+  <si>
+    <t>Notamment, comme dans le cas de la communication, une telle convergence permet le partage de connaissances, voire la négociation entre parties prenantes, puisque tout le monde peut parler la même « langue ».</t>
   </si>
   <si>
     <t>Compte tenu des contraintes connues et de la structure de l'environnement, les méthodes traditionnelles de planification de mouvement peuvent trouver de manière robuste des chemins sans contraintes reliant les configurations de départ et d'objectif de la cible [1], même dans des problèmes à long horizon.</t>
   </si>
   <si>
-    <t> Les méthodes de base ne forment pas les politiques de compétences sur une gamme d'objets suffisamment diversifiée et ne peuvent donc souvent pas accomplir les tâches en 10 étapes.</t>
-  </si>
-  <si>
-    <t> une personne en pantalon rose jouant de la guitare</t>
-  </si>
-  <si>
-    <t> Une petite fille découpant du papier.</t>
-  </si>
-  <si>
-    <t> Le numéro sur la poubelle est le 66 .</t>
-  </si>
-  <si>
-    <t> Un grand groupe de personnes attendent dans une gare.</t>
-  </si>
-  <si>
-    <t> Un petit garçon est assis sur les épaules de son père tout en tenant des ballons</t>
-  </si>
-  <si>
-    <t> Tout simplement parce que tu as peur de l'océan...</t>
-  </si>
-  <si>
-    <t> Pour un poisson-clown, il n'est pas si drôle que ça.</t>
-  </si>
-  <si>
-    <t> J'ai entendu dire qu'il en avait pris trois.</t>
-  </si>
-  <si>
-    <t> J'ai peur maintenant !</t>
-  </si>
-  <si>
-    <t> Je me suis souvenu de ce qu'il disait.</t>
-  </si>
-  <si>
-    <t> Garçon debout sur un monticule lançant la balle à un receveur.</t>
-  </si>
-  <si>
-    <t> Un homme est assis et se fait couper les cheveux pendant qu'une femme en parle.</t>
+    <t>Les méthodes de base ne forment pas les politiques de compétences sur une gamme d'objets suffisamment diversifiée et ne peuvent donc souvent pas accomplir les tâches en 10 étapes.</t>
+  </si>
+  <si>
+    <t>une personne en pantalon rose jouant de la guitare</t>
+  </si>
+  <si>
+    <t>Une petite fille découpant du papier.</t>
+  </si>
+  <si>
+    <t>Le numéro sur la poubelle est le 66 .</t>
+  </si>
+  <si>
+    <t>Un grand groupe de personnes attendent dans une gare.</t>
+  </si>
+  <si>
+    <t>Un petit garçon est assis sur les épaules de son père tout en tenant des ballons</t>
+  </si>
+  <si>
+    <t>Tout simplement parce que tu as peur de l'océan...</t>
+  </si>
+  <si>
+    <t>Pour un poisson-clown, il n'est pas si drôle que ça.</t>
+  </si>
+  <si>
+    <t>J'ai entendu dire qu'il en avait pris trois.</t>
+  </si>
+  <si>
+    <t>J'ai peur maintenant !</t>
+  </si>
+  <si>
+    <t>Je me suis souvenu de ce qu'il disait.</t>
+  </si>
+  <si>
+    <t>Garçon debout sur un monticule lançant la balle à un receveur.</t>
+  </si>
+  <si>
+    <t>Un homme est assis et se fait couper les cheveux pendant qu'une femme en parle.</t>
   </si>
   <si>
     <t>un homme debout dehors dans la neige jetant une hache sur une cible en cible. Un homme verse de la bière dans un verre de Samuel Adams.</t>
   </si>
   <si>
-    <t> Deux femmes sont sur scène pour remettre des prix à trois autres hommes en costume d'affaires.</t>
-  </si>
-  <si>
-    <t> Un homme voyait le tableau HDFC et bougeait la tête. Un homme retirait des fonds du guichet automatique. Un bébé mignon buvait avec ses mains et une autre personne l'aidait.</t>
-  </si>
-  <si>
-    <t> Un métallurgiste utilise du matériel de soudage pour travailler sur une grande plaque métallique.</t>
-  </si>
-  <si>
-    <t> Nous devons faire tout ce qu'il faut pour revenir.</t>
-  </si>
-  <si>
-    <t> Je pense que c'est juste des "trucs" ici.</t>
-  </si>
-  <si>
-    <t> Fini les clous exposés ou les nids d'opossums.</t>
-  </si>
-  <si>
-    <t> Je n’ai jamais eu l’intention de mentir, mais je devais rester.</t>
-  </si>
-  <si>
-    <t> Peut-être devrions-nous faire une pause.</t>
-  </si>
-  <si>
-    <t> Les filles nommées Miranda ne trouvent jamais ça drôle quand on leur dit qu'elles ont le droit de garder le silence.</t>
-  </si>
-  <si>
-    <t> J'aimerais être un piment pour pouvoir faire du commerce de jalapeno</t>
-  </si>
-  <si>
-    <t> Lorsque vous avez le cerveau gelé à cause d'une margarita, vous savez que vous avez des problèmes</t>
-  </si>
-  <si>
-    <t> Si jamais vous voyez un clown effrayant... optez pour le jongleur</t>
+    <t>Deux femmes sont sur scène pour remettre des prix à trois autres hommes en costume d'affaires.</t>
+  </si>
+  <si>
+    <t>Un homme voyait le tableau HDFC et bougeait la tête. Un homme retirait des fonds du guichet automatique. Un bébé mignon buvait avec ses mains et une autre personne l'aidait.</t>
+  </si>
+  <si>
+    <t>Un métallurgiste utilise du matériel de soudage pour travailler sur une grande plaque métallique.</t>
+  </si>
+  <si>
+    <t>Nous devons faire tout ce qu'il faut pour revenir.</t>
+  </si>
+  <si>
+    <t>Je pense que c'est juste des "trucs" ici.</t>
+  </si>
+  <si>
+    <t>Fini les clous exposés ou les nids d'opossums.</t>
+  </si>
+  <si>
+    <t>Je n’ai jamais eu l’intention de mentir, mais je devais rester.</t>
+  </si>
+  <si>
+    <t>Peut-être devrions-nous faire une pause.</t>
+  </si>
+  <si>
+    <t>Les filles nommées Miranda ne trouvent jamais ça drôle quand on leur dit qu'elles ont le droit de garder le silence.</t>
+  </si>
+  <si>
+    <t>J'aimerais être un piment pour pouvoir faire du commerce de jalapeno</t>
+  </si>
+  <si>
+    <t>Lorsque vous avez le cerveau gelé à cause d'une margarita, vous savez que vous avez des problèmes</t>
+  </si>
+  <si>
+    <t>Si jamais vous voyez un clown effrayant... optez pour le jongleur</t>
   </si>
   <si>
     <t>Les scientifiques ont découvert... ...que les gens s'en foutent complètement de l'apathie.</t>
   </si>
   <si>
-    <t> Un homme infâme a tout fait, tout fait : le lieutenant-colonel Du Paty de Clam, alors seulement commandant.</t>
-  </si>
-  <si>
-    <t> et puis presque du jour au lendemain, les dents, les cheveux et tout l'âge et vous avez 50 ans pendant environ 10 ans, puis avec un gros cliquetis comme une chaîne rouillée, vous avez 60 ans et ainsi de suite.</t>
-  </si>
-  <si>
-    <t> C'est une pure fierté, comme c'était le cas à l'époque.</t>
-  </si>
-  <si>
-    <t> Je ne suis pas sûr de ce que vous entendez par succès, à moins que vous ne fassiez référence à toutes les chaînes à succès que vous pourrez regarder après avoir utilisé mon service.. Bonjour.. Salut.</t>
-  </si>
-  <si>
-    <t> Il s'agit d'un tube supérieur Fit Bike VH2 de 20,75 pouces.</t>
-  </si>
-  <si>
-    <t> Je suis intéressé par cet article.</t>
-  </si>
-  <si>
-    <t> C'est un vélo gratuit, avec un temps de conduite très minime, toujours gardé dans un garage et utilisé par des adultes.</t>
-  </si>
-  <si>
-    <t> Nous avons toutes les options disponibles en ce moment, même si pour le moment nous n'avons que quelques appartements de 3 chambres.</t>
-  </si>
-  <si>
-    <t> Puis-je vous aider monsieur ?</t>
-  </si>
-  <si>
-    <t> Je ne sais pas pourquoi je l'ai épousé.</t>
-  </si>
-  <si>
-    <t> J'aurais aimé savoir qui avait déplacé nos pots de fleurs.</t>
-  </si>
-  <si>
-    <t> Qu'a dit le patron ?</t>
+    <t>Un homme infâme a tout fait, tout fait : le lieutenant-colonel Du Paty de Clam, alors seulement commandant.</t>
+  </si>
+  <si>
+    <t>et puis presque du jour au lendemain, les dents, les cheveux et tout l'âge et vous avez 50 ans pendant environ 10 ans, puis avec un gros cliquetis comme une chaîne rouillée, vous avez 60 ans et ainsi de suite.</t>
+  </si>
+  <si>
+    <t>C'est une pure fierté, comme c'était le cas à l'époque.</t>
+  </si>
+  <si>
+    <t>Je ne suis pas sûr de ce que vous entendez par succès, à moins que vous ne fassiez référence à toutes les chaînes à succès que vous pourrez regarder après avoir utilisé mon service.. Bonjour.. Salut.</t>
+  </si>
+  <si>
+    <t>Il s'agit d'un tube supérieur Fit Bike VH2 de 20,75 pouces.</t>
+  </si>
+  <si>
+    <t>Je suis intéressé par cet article.</t>
+  </si>
+  <si>
+    <t>C'est un vélo gratuit, avec un temps de conduite très minime, toujours gardé dans un garage et utilisé par des adultes.</t>
+  </si>
+  <si>
+    <t>Nous avons toutes les options disponibles en ce moment, même si pour le moment nous n'avons que quelques appartements de 3 chambres.</t>
+  </si>
+  <si>
+    <t>Puis-je vous aider monsieur ?</t>
+  </si>
+  <si>
+    <t>Je ne sais pas pourquoi je l'ai épousé.</t>
+  </si>
+  <si>
+    <t>J'aurais aimé savoir qui avait déplacé nos pots de fleurs.</t>
+  </si>
+  <si>
+    <t>Qu'a dit le patron ?</t>
   </si>
   <si>
     <t>Pourrais-tu me dire où tu as mis mon livre ?</t>
   </si>
   <si>
-    <t> Régler l'alarme à 9h00 tous les vendredis</t>
-  </si>
-  <si>
-    <t> Régler une alarme à 18 heures aujourd'hui</t>
-  </si>
-  <si>
-    <t> efface toutes mes alarmes s'il te plaît</t>
-  </si>
-  <si>
-    <t> combien de temps encore avant que mon alarme ne sonne</t>
-  </si>
-  <si>
-    <t> Combien de temps avant que mon alarme ne se déclenche ?</t>
-  </si>
-  <si>
-    <t> Un tas d'images brisées, où le soleil bat</t>
-  </si>
-  <si>
-    <t> Merci.</t>
-  </si>
-  <si>
-    <t> J'ai quand même eu un gros rhume</t>
-  </si>
-  <si>
-    <t> Il y a de l'ombre sous ce rocher rouge</t>
-  </si>
-  <si>
-    <t> La dame des situations</t>
-  </si>
-  <si>
-    <t> Après 20 mois de dur labeur, la pandémie ne contrôle plus nos vies.</t>
-  </si>
-  <si>
-    <t> Vous m'avez entendu le dire ad nauseam : je ne sais pas où il est écrit que nous ne pouvons pas être la capitale manufacturière mondiale.</t>
-  </si>
-  <si>
-    <t> Votons pour Karen Bass comme maire.</t>
-  </si>
-  <si>
-    <t> Mais l’écrasante majorité du peuple américain soutient les éléments de mon programme économique : la reconstruction des routes et des ponts américains ; à réduire les coûts des médicaments sur ordonnance ; à un investissement historique dans la lutte contre la crise climatique ; pour s'assurer que les grandes entreprises commencent à payer leur juste part d'impôts.</t>
+    <t>Régler l'alarme à 9h00 tous les vendredis</t>
+  </si>
+  <si>
+    <t>Régler une alarme à 18 heures aujourd'hui</t>
+  </si>
+  <si>
+    <t>efface toutes mes alarmes s'il te plaît</t>
+  </si>
+  <si>
+    <t>combien de temps encore avant que mon alarme ne sonne</t>
+  </si>
+  <si>
+    <t>Combien de temps avant que mon alarme ne se déclenche ?</t>
+  </si>
+  <si>
+    <t>Un tas d'images brisées, où le soleil bat</t>
+  </si>
+  <si>
+    <t>Merci.</t>
+  </si>
+  <si>
+    <t>J'ai quand même eu un gros rhume</t>
+  </si>
+  <si>
+    <t>Il y a de l'ombre sous ce rocher rouge</t>
+  </si>
+  <si>
+    <t>La dame des situations</t>
+  </si>
+  <si>
+    <t>Après 20 mois de dur labeur, la pandémie ne contrôle plus nos vies.</t>
+  </si>
+  <si>
+    <t>Vous m'avez entendu le dire ad nauseam : je ne sais pas où il est écrit que nous ne pouvons pas être la capitale manufacturière mondiale.</t>
+  </si>
+  <si>
+    <t>Votons pour Karen Bass comme maire.</t>
+  </si>
+  <si>
+    <t>Mais l’écrasante majorité du peuple américain soutient les éléments de mon programme économique : la reconstruction des routes et des ponts américains ; à réduire les coûts des médicaments sur ordonnance ; à un investissement historique dans la lutte contre la crise climatique ; pour s'assurer que les grandes entreprises commencent à payer leur juste part d'impôts.</t>
   </si>
   <si>
     <t>Et je suis convaincu que ces politiques fonctionnent, que nous sommes sur la bonne voie et que nous devons nous y tenir.</t>
   </si>
   <si>
-    <t> Parce qu'ils vivaient à côté de capitales musicales comme New York, Chicago ou Los Angeles, ils étudiaient dans des endroits comme Juilliard le week-end.</t>
-  </si>
-  <si>
-    <t> Si vous ne les rencontrez pas ?</t>
-  </si>
-  <si>
-    <t> Ces muscles vivants convertissent efficacement l’énergie chimique provenant des nutriments en contractions musculaires.</t>
-  </si>
-  <si>
-    <t> Aux États-Unis, les étudiants à faible revenu abandonnent leurs études dans les collèges communautaires à un rythme record en raison des obstacles auxquels ils sont confrontés.</t>
-  </si>
-  <si>
-    <t> Que voulez-vous voir se produire ?</t>
-  </si>
-  <si>
-    <t> Où puis-je obtenir le certificat 7 ?</t>
-  </si>
-  <si>
-    <t> Quels sont les faits intéressants sur les temples hindous ?</t>
-  </si>
-  <si>
-    <t> Si c'est une partie difficile de la construction d'un quadricoptère ?</t>
-  </si>
-  <si>
-    <t> Où puis-je trouver une solution simple à comprendre sur la façon dont Firebase perd du poids ?</t>
-  </si>
-  <si>
-    <t> Pourquoi mes chatons bmm lui sifflent-ils dessus ?</t>
-  </si>
-  <si>
-    <t> De quelle classe était celle d'UNIX ?</t>
-  </si>
-  <si>
-    <t> Cependant, je n'étais pas ingénieur, donc quelqu'un qui est/était au Collège d'ingénierie peut me corriger si je me trompe.</t>
+    <t>Parce qu'ils vivaient à côté de capitales musicales comme New York, Chicago ou Los Angeles, ils étudiaient dans des endroits comme Juilliard le week-end.</t>
+  </si>
+  <si>
+    <t>Si vous ne les rencontrez pas ?</t>
+  </si>
+  <si>
+    <t>Ces muscles vivants convertissent efficacement l’énergie chimique provenant des nutriments en contractions musculaires.</t>
+  </si>
+  <si>
+    <t>Aux États-Unis, les étudiants à faible revenu abandonnent leurs études dans les collèges communautaires à un rythme record en raison des obstacles auxquels ils sont confrontés.</t>
+  </si>
+  <si>
+    <t>Que voulez-vous voir se produire ?</t>
+  </si>
+  <si>
+    <t>Où puis-je obtenir le certificat 7 ?</t>
+  </si>
+  <si>
+    <t>Quels sont les faits intéressants sur les temples hindous ?</t>
+  </si>
+  <si>
+    <t>Si c'est une partie difficile de la construction d'un quadricoptère ?</t>
+  </si>
+  <si>
+    <t>Où puis-je trouver une solution simple à comprendre sur la façon dont Firebase perd du poids ?</t>
+  </si>
+  <si>
+    <t>Pourquoi mes chatons bmm lui sifflent-ils dessus ?</t>
+  </si>
+  <si>
+    <t>De quelle classe était celle d'UNIX ?</t>
+  </si>
+  <si>
+    <t>Cependant, je n'étais pas ingénieur, donc quelqu'un qui est/était au Collège d'ingénierie peut me corriger si je me trompe.</t>
   </si>
   <si>
     <t>Alors oui, vous devez envoyer toutes les partitions.</t>
   </si>
   <si>
-    <t> Vous pouvez toujours vous précipiter au printemps si vous souhaitez vivre une expérience de pointe plus « traditionnelle ».</t>
-  </si>
-  <si>
-    <t> Je suis dans la majeure et j'ai bien réussi.</t>
+    <t>Vous pouvez toujours vous précipiter au printemps si vous souhaitez vivre une expérience de pointe plus « traditionnelle ».</t>
+  </si>
+  <si>
+    <t>Je suis dans la majeure et j'ai bien réussi.</t>
   </si>
   <si>
     <t xml:space="preserve"> Je souhaite renommer une base de données, mais j'obtiens toujours l'erreur "Impossible d'obtenir un verrouillage exclusif" sur la base de données, ce qui implique qu'il y a des connexions toujours actives.</t>
   </si>
   <si>
-    <t> Qu'est-ce qui se passe réellement pour provoquer l'erreur svn:checksum et quelle est la meilleure solution.</t>
-  </si>
-  <si>
-    <t> Je recherche le meilleur moyen de consigner les erreurs dans une application ASP.NET.</t>
-  </si>
-  <si>
-    <t> La valeur fournie comme mot de passe actuel est incorrecte.</t>
-  </si>
-  <si>
-    <t> La plupart de ces paramètres sont là pour personnaliser certaines règles métier, mais il y a aussi d'autres éléments.</t>
-  </si>
-  <si>
-    <t> Je suis si intelligent que parfois je ne comprends pas un seul mot de ce que je dis.</t>
-  </si>
-  <si>
-    <t> Il ne faut pas s’attarder sur ses rêves et oublier de vivre.</t>
-  </si>
-  <si>
-    <t> En le lisant, je suis tombée amoureuse de la façon dont on s'endort : lentement, puis d'un seul coup.</t>
+    <t>Qu'est-ce qui se passe réellement pour provoquer l'erreur svn:checksum et quelle est la meilleure solution.</t>
+  </si>
+  <si>
+    <t>Je recherche le meilleur moyen de consigner les erreurs dans une application ASP.NET.</t>
+  </si>
+  <si>
+    <t>La valeur fournie comme mot de passe actuel est incorrecte.</t>
+  </si>
+  <si>
+    <t>La plupart de ces paramètres sont là pour personnaliser certaines règles métier, mais il y a aussi d'autres éléments.</t>
+  </si>
+  <si>
+    <t>Je suis si intelligent que parfois je ne comprends pas un seul mot de ce que je dis.</t>
+  </si>
+  <si>
+    <t>Il ne faut pas s’attarder sur ses rêves et oublier de vivre.</t>
+  </si>
+  <si>
+    <t>En le lisant, je suis tombée amoureuse de la façon dont on s'endort : lentement, puis d'un seul coup.</t>
   </si>
   <si>
     <t>Nous acceptons l'amour que nous pensons que nous méritons.</t>
   </si>
   <si>
-    <t> Tant de livres, si peu de temps.</t>
-  </si>
-  <si>
-    <t> Jacinda Ardern et le parti travailliste néo-zélandais ont soudoyé les médias néo-zélandais pour remporter la réélection et il y a une fraude électorale en Nouvelle-Zélande.</t>
-  </si>
-  <si>
-    <t> En Afrique, un enfant meurt chaque minute à cause du (paludisme).</t>
-  </si>
-  <si>
-    <t> Il existe une nouvelle variante du COVID-19 extrêmement dangereuse à Singapour</t>
-  </si>
-  <si>
-    <t> Aujourd'hui, 27 millions de personnes sont réduites en esclavage.</t>
-  </si>
-  <si>
-    <t> Trump va lancer une tournée de conférences avec Bill O'Reilly</t>
-  </si>
-  <si>
-    <t> Un juge du comté de Fulton en Géorgie a fait droit à une requête autorisant que les bulletins de vote par correspondance de 2020 soient descellés et examinés pour fraude, ouvrant ainsi la voie à un autre audit des résultats des élections.</t>
-  </si>
-  <si>
-    <t> Je ne parle même plus de ça, le Canada n'est pas le seul pays à avoir un Toronto.</t>
-  </si>
-  <si>
-    <t> Malheureusement, ce n'est pas le genre de concours que nous organisons pour les prochaines élections, donc c'est sans objet...</t>
-  </si>
-  <si>
-    <t> Vous vous souvenez du discours de Trump « chance, un mot très important » ?</t>
+    <t>Tant de livres, si peu de temps.</t>
+  </si>
+  <si>
+    <t>Jacinda Ardern et le parti travailliste néo-zélandais ont soudoyé les médias néo-zélandais pour remporter la réélection et il y a une fraude électorale en Nouvelle-Zélande.</t>
+  </si>
+  <si>
+    <t>En Afrique, un enfant meurt chaque minute à cause du (paludisme).</t>
+  </si>
+  <si>
+    <t>Il existe une nouvelle variante du COVID-19 extrêmement dangereuse à Singapour</t>
+  </si>
+  <si>
+    <t>Aujourd'hui, 27 millions de personnes sont réduites en esclavage.</t>
+  </si>
+  <si>
+    <t>Trump va lancer une tournée de conférences avec Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Un juge du comté de Fulton en Géorgie a fait droit à une requête autorisant que les bulletins de vote par correspondance de 2020 soient descellés et examinés pour fraude, ouvrant ainsi la voie à un autre audit des résultats des élections.</t>
+  </si>
+  <si>
+    <t>Je ne parle même plus de ça, le Canada n'est pas le seul pays à avoir un Toronto.</t>
+  </si>
+  <si>
+    <t>Malheureusement, ce n'est pas le genre de concours que nous organisons pour les prochaines élections, donc c'est sans objet...</t>
+  </si>
+  <si>
+    <t>Vous vous souvenez du discours de Trump « chance, un mot très important » ?</t>
   </si>
   <si>
     <t>Le finlandais Exel Composites , une entreprise technologique qui conçoit , fabrique et commercialise des profilés et tubes composites pour diverses applications industrielles , annonce que son chiffre d' affaires net a diminué de 0,6 % au deuxième trimestre 2010 à 19,2 millions d' euros contre 19,3 millions d' euros pour la période correspondante en 2010 . 2009 .</t>
   </si>
   <si>
-    <t> La transaction devrait être financée par un prêt de marché de 40 millions d'euros accordé par la Standard Chartered Bank Hong Kong.</t>
-  </si>
-  <si>
-    <t> Le bénéfice consolidé avant impôts a diminué de 69,2 % à 41,0 millions d' euros contre 133,1 millions d' euros en 2007 .</t>
-  </si>
-  <si>
-    <t> Au troisième trimestre 2007, le chiffre d'affaires net s'est élevé à 25,95 millions d'euros et le résultat opérationnel à 3,88 millions d'euros.</t>
-  </si>
-  <si>
-    <t> Chaque action donne droit à une voix.</t>
-  </si>
-  <si>
-    <t> "Lemon" de Janicza Bravo et Brett Gelman explore la médiocrité des hommes blancs dans un film indépendant vraiment troublant.</t>
-  </si>
-  <si>
-    <t> "Action" d'Amy Rose Spiegel comprend.</t>
-  </si>
-  <si>
-    <t> Si seulement c'était de la fiction.</t>
-  </si>
-  <si>
-    <t> Les écrivains écriront et les lecteurs liront, quelles que soient les distractions que vous nous lancez.</t>
+    <t>La transaction devrait être financée par un prêt de marché de 40 millions d'euros accordé par la Standard Chartered Bank Hong Kong.</t>
+  </si>
+  <si>
+    <t>Le bénéfice consolidé avant impôts a diminué de 69,2 % à 41,0 millions d' euros contre 133,1 millions d' euros en 2007 .</t>
+  </si>
+  <si>
+    <t>Au troisième trimestre 2007, le chiffre d'affaires net s'est élevé à 25,95 millions d'euros et le résultat opérationnel à 3,88 millions d'euros.</t>
+  </si>
+  <si>
+    <t>Chaque action donne droit à une voix.</t>
+  </si>
+  <si>
+    <t>"Lemon" de Janicza Bravo et Brett Gelman explore la médiocrité des hommes blancs dans un film indépendant vraiment troublant.</t>
+  </si>
+  <si>
+    <t>"Action" d'Amy Rose Spiegel comprend.</t>
+  </si>
+  <si>
+    <t>Si seulement c'était de la fiction.</t>
+  </si>
+  <si>
+    <t>Les écrivains écriront et les lecteurs liront, quelles que soient les distractions que vous nous lancez.</t>
   </si>
   <si>
     <t>L'artiste Tega Brain a créé un site Web répertoriant ce qui pourrait être perdu si le financement des arts venait à disparaître.</t>
   </si>
   <si>
-    <t> Chaque semaine, les nombreux blogs couvrant les machinations de l'empire Apple font circuler des rumeurs non confirmées, des spéculations flagrantes</t>
-  </si>
-  <si>
-    <t> Les détaillants traditionnels se sont lancés dans le commerce électronique, mais leurs efforts ont échoué.</t>
-  </si>
-  <si>
-    <t> Les enceintes Bluetooth sont de plus en plus mignonnes depuis plusieurs années, avec des briques, des cubes, des sphères et même des tortues.</t>
-  </si>
-  <si>
-    <t> Le problème avec la réalité virtuelle, c’est qu’elle existe depuis un peu trop longtemps. Tu te souviens quand la seconde vie était si chaude ? Eh bien, c'était il y a longtemps.</t>
-  </si>
-  <si>
-    <t> Apple vient de faire une embauche intéressante. Entendons-nous les moteurs s’emballer ?</t>
-  </si>
-  <si>
-    <t> Les États-Unis feront défaut sur leurs dettes le 3 novembre si le Congrès n’agit pas.</t>
-  </si>
-  <si>
-    <t> Les super PAC aux gros budgets ont collecté près de la moitié de l’argent présidentiel.</t>
-  </si>
-  <si>
-    <t> « Nous avons été enfermés dans une salle de classe. Nous avons vu nos amis envoyer un message d'adieu à leurs parents. Nous sommes les experts."</t>
+    <t>Chaque semaine, les nombreux blogs couvrant les machinations de l'empire Apple font circuler des rumeurs non confirmées, des spéculations flagrantes</t>
+  </si>
+  <si>
+    <t>Les détaillants traditionnels se sont lancés dans le commerce électronique, mais leurs efforts ont échoué.</t>
+  </si>
+  <si>
+    <t>Les enceintes Bluetooth sont de plus en plus mignonnes depuis plusieurs années, avec des briques, des cubes, des sphères et même des tortues.</t>
+  </si>
+  <si>
+    <t>Le problème avec la réalité virtuelle, c’est qu’elle existe depuis un peu trop longtemps. Tu te souviens quand la seconde vie était si chaude ? Eh bien, c'était il y a longtemps.</t>
+  </si>
+  <si>
+    <t>Apple vient de faire une embauche intéressante. Entendons-nous les moteurs s’emballer ?</t>
+  </si>
+  <si>
+    <t>Les États-Unis feront défaut sur leurs dettes le 3 novembre si le Congrès n’agit pas.</t>
+  </si>
+  <si>
+    <t>Les super PAC aux gros budgets ont collecté près de la moitié de l’argent présidentiel.</t>
+  </si>
+  <si>
+    <t>« Nous avons été enfermés dans une salle de classe. Nous avons vu nos amis envoyer un message d'adieu à leurs parents. Nous sommes les experts."</t>
   </si>
   <si>
     <t>L'ancien procureur a déclaré que la décision du FBI violait « les règles les plus fondamentales d'équité et d'impartialité ».</t>
   </si>
   <si>
-    <t> Elle était démocrate de longue date.</t>
-  </si>
-  <si>
-    <t> "C'est mon argent. J'ai besoin d'un nouveau toit", a-t-il déclaré lors d'un entretien téléphonique. "C'est troublant de savoir que quelqu'un prend un morceau</t>
-  </si>
-  <si>
-    <t> Comme le dit Betsy Myers dans Take the Lead, les dirigeants ne sont pas intrépides mais ont le courage d'affronter et de surmonter leurs peurs.</t>
-  </si>
-  <si>
-    <t> La nouvelle pièce est la bonne nouvelle dont les gens avaient envie après un début d’année 2020 difficile.</t>
-  </si>
-  <si>
-    <t> Imaginez si le vendeur vous disait ce qui allait réellement se passer : « Normalement, cette robe coûte 250 $, mais nous avons un</t>
-  </si>
-  <si>
-    <t> Daniel Joseph, un jeune de 17 ans de Centennial, Colorado, s'est rendu aux urgences après qu'un serpent à sonnette l'a mordu deux fois, CBS Denver</t>
-  </si>
-  <si>
-    <t> Que les jeux commencent.</t>
-  </si>
-  <si>
-    <t> Les Canadiens Meagan Duhamel et Eric Radford ont pris un gros risque et cela a payé.</t>
-  </si>
-  <si>
-    <t> Lin part pour Brooklyn, pour être exact.</t>
+    <t>Elle était démocrate de longue date.</t>
+  </si>
+  <si>
+    <t>"C'est mon argent. J'ai besoin d'un nouveau toit", a-t-il déclaré lors d'un entretien téléphonique. "C'est troublant de savoir que quelqu'un prend un morceau</t>
+  </si>
+  <si>
+    <t>Comme le dit Betsy Myers dans Take the Lead, les dirigeants ne sont pas intrépides mais ont le courage d'affronter et de surmonter leurs peurs.</t>
+  </si>
+  <si>
+    <t>La nouvelle pièce est la bonne nouvelle dont les gens avaient envie après un début d’année 2020 difficile.</t>
+  </si>
+  <si>
+    <t>Imaginez si le vendeur vous disait ce qui allait réellement se passer : « Normalement, cette robe coûte 250 $, mais nous avons un</t>
+  </si>
+  <si>
+    <t>Daniel Joseph, un jeune de 17 ans de Centennial, Colorado, s'est rendu aux urgences après qu'un serpent à sonnette l'a mordu deux fois, CBS Denver</t>
+  </si>
+  <si>
+    <t>Que les jeux commencent.</t>
+  </si>
+  <si>
+    <t>Les Canadiens Meagan Duhamel et Eric Radford ont pris un gros risque et cela a payé.</t>
+  </si>
+  <si>
+    <t>Lin part pour Brooklyn, pour être exact.</t>
   </si>
   <si>
     <t>Un employé du front office a déclaré que son équipe se contentait de 5 à 10 corners tant que le joueur avait les bras longs. Avoir des bras longs permet</t>
   </si>
   <si>
-    <t> La star américaine du ski, en déclin, quittera les Jeux olympiques d'hiver de Pékin sans médaille mais se montre "optimiste".</t>
+    <t>La star américaine du ski, en déclin, quittera les Jeux olympiques d'hiver de Pékin sans médaille mais se montre "optimiste".</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1221,17 +1221,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>6</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>5</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>6</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>5</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>5</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>3</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>5</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>5</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>5</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>5</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
         <v>3</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
         <v>4</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
         <v>6</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1">
         <v>4</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>4</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
         <v>2</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1">
         <v>2</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>4</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
         <v>4</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>4</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
         <v>4</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1">
         <v>5</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>4</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>5</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>4</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
         <v>4</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>5</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>3</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
         <v>4</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>5</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
         <v>4</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
         <v>5</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>4</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>3</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
         <v>3</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
         <v>4</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
         <v>2</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
         <v>3</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
         <v>5</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
         <v>4</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
         <v>5</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
         <v>4</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <v>4</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
         <v>4</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
         <v>4</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
         <v>5</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
         <v>5</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
         <v>5</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
         <v>5</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
         <v>2</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <v>2</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
         <v>2</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
         <v>2</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>1</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>1</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>1</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
         <v>1</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
         <v>2</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
         <v>2</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
         <v>3</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
         <v>3</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
         <v>2</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>2</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>3</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>2</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>2</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>2</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>2</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <v>3</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>3</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
         <v>3</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <v>2</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <v>2</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1">
         <v>2</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
         <v>3</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1">
         <v>3</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <v>1</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <v>2</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <v>2</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <v>1</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1">
         <v>2</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1">
         <v>1</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>1</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1">
         <v>1</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1">
         <v>1</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>4</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1">
         <v>1</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>2</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>2</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>2</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1">
         <v>2</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1">
         <v>3</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1">
         <v>1</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1">
         <v>4</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>3</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>3</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>2</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1">
         <v>4</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1">
         <v>3</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1">
         <v>2</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1">
         <v>2</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1">
         <v>2</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1">
         <v>3</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1">
         <v>3</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1">
         <v>3</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1">
         <v>3</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1">
         <v>2</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B246" s="1">
         <v>2</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1">
         <v>2</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1">
         <v>2</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1">
         <v>4</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1">
         <v>4</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1">
         <v>4</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1">
         <v>2</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1">
         <v>4</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1">
         <v>2</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1">
         <v>2</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1">
         <v>2</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1">
         <v>2</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1">
         <v>1</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1">
         <v>2</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1">
         <v>2</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1">
         <v>3</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1">
         <v>2</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B264" s="1">
         <v>4</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B265" s="1">
         <v>2</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B266" s="1">
         <v>3</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1">
         <v>2</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1">
         <v>6</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1">
         <v>4</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1">
         <v>5</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1">
         <v>4</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B272" s="1">
         <v>3</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B273" s="1">
         <v>5</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B274" s="1">
         <v>3</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B275" s="1">
         <v>2</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1">
         <v>4</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B277" s="1">
         <v>3</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B278" s="1">
         <v>5</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B279" s="1">
         <v>3</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280" s="1">
         <v>3</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B281" s="1">
         <v>4</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B282" s="1">
         <v>3</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B283" s="1">
         <v>4</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B284" s="1">
         <v>4</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B285" s="1">
         <v>3</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B286" s="1">
         <v>4</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B287" s="1">
         <v>2</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B288" s="1">
         <v>2</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B289" s="1">
         <v>3</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290" s="1">
         <v>4</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B291" s="1">
         <v>3</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B292" s="1">
         <v>4</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B293" s="1">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B294" s="1">
         <v>3</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B295" s="1">
         <v>3</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B296" s="1">
         <v>4</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B297" s="1">
         <v>4</v>
